--- a/Tableau avancement.xlsx
+++ b/Tableau avancement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vazvi\OneDrive - Association Cesi Viacesi mail\A2\Bloc PMF\Prosit 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vazvi\OneDrive - Association Cesi Viacesi mail\A2\Bloc PMF\Prosit 4\GitProjet\USB-PimpMyFridge-CESI-Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{7AA5D401-258B-4E46-A689-415BBAE8454B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFA5DE6-04B4-47B9-9EE7-B969C3CBC2A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{F3351BEC-FF4C-4D98-B933-62BCFA4F323A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
   <si>
     <t>Fonctionnel</t>
   </si>
@@ -104,9 +104,6 @@
   <si>
     <t>Possibilité de définir une température de consigne 
 (de fonctionnement du frigo - 18°C maintenu)</t>
-  </si>
-  <si>
-    <t>ptdr</t>
   </si>
   <si>
     <t>Interfaçage</t>
@@ -177,7 +174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,8 +212,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,15 +226,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,178 +546,178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1380A064-996A-4CBA-B234-61BD36A2D9D3}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="9"/>
       <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="9"/>
       <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="9"/>
       <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="4"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -730,21 +727,19 @@
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Tableau avancement.xlsx
+++ b/Tableau avancement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vazvi\OneDrive - Association Cesi Viacesi mail\A2\Bloc PMF\Prosit 4\GitProjet\USB-PimpMyFridge-CESI-Engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Documents\GitHub\USB-PimpMyFridge-CESI-Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFA5DE6-04B4-47B9-9EE7-B969C3CBC2A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA297440-06F7-4463-92E4-4A29044E5202}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{F3351BEC-FF4C-4D98-B933-62BCFA4F323A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Fonctionnel</t>
   </si>
@@ -214,6 +214,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -229,7 +230,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1380A064-996A-4CBA-B234-61BD36A2D9D3}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,10 +558,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -570,40 +570,40 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -612,32 +612,32 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -646,24 +646,24 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -672,70 +672,70 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
